--- a/NCACY25_1_1.xlsx_fitting_results.xlsx
+++ b/NCACY25_1_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01644885605756348</v>
+        <v>0.02265095635482661</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005000029786957502</v>
+        <v>0.004393019000429587</v>
       </c>
       <c r="D2" t="n">
-        <v>6.970776764182861</v>
+        <v>0.1473477208112708</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2228585957118244</v>
+        <v>0.9999999999991409</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008108620902849308</v>
+        <v>0.002282452184386155</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4270833365775084</v>
+        <v>4.870339648500726</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7484413146106896</v>
+        <v>0.8198922852008386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003915052137824157</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.225081909485385e-07</v>
+        <v>0.001999424810744611</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02256560868938721</v>
+        <v>0.02182162570449333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005000000012822601</v>
+        <v>0.004657507446143256</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6171273897827387</v>
+        <v>0.382963341178504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7632806176073048</v>
+        <v>0.9057467081819301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001835308111498628</v>
+        <v>0.00443766478180491</v>
       </c>
       <c r="G3" t="n">
-        <v>1.281455413039419</v>
+        <v>170.9494755296041</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8027369847636359</v>
+        <v>4.015979966071296e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005936282120778433</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.143311022700805e-07</v>
+        <v>0.00510170656736115</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02738854363354953</v>
+        <v>0.02902616656248363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005000000000000001</v>
+        <v>0.005226878912989529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1004000773489602</v>
+        <v>0.1387936897232775</v>
       </c>
       <c r="E4" t="n">
-        <v>0.952741018055573</v>
+        <v>0.9999999999999925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004581309189260576</v>
+        <v>0.002647211001443092</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7198370630659974</v>
+        <v>1.641741474104875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9134023112253857</v>
+        <v>0.9658550394205794</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007670843002902894</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.116484484853142e-07</v>
+        <v>0.003845794486194247</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03221713202037573</v>
+        <v>0.03446254112540968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01045758324253372</v>
+        <v>0.005934140030111268</v>
       </c>
       <c r="D5" t="n">
-        <v>1.090774923864007</v>
+        <v>2.172191852500807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6972990759843819</v>
+        <v>0.7912143205014157</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002881048177071532</v>
+        <v>0.005036414468126029</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07818494775714004</v>
+        <v>0.129438956044593</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999997174</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00956803368463395</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.070137748629775e-07</v>
+        <v>0.004817558935335966</v>
       </c>
     </row>
   </sheetData>
